--- a/jogos_2025-05-27.xlsx
+++ b/jogos_2025-05-27.xlsx
@@ -253,36 +253,36 @@
     <t>Quang Nam</t>
   </si>
   <si>
+    <t>Suwon</t>
+  </si>
+  <si>
+    <t>Daejeon Citizen</t>
+  </si>
+  <si>
     <t>Daegu</t>
   </si>
   <si>
-    <t>Daejeon Citizen</t>
-  </si>
-  <si>
-    <t>Suwon</t>
-  </si>
-  <si>
     <t>FLC Thanh Hoa</t>
   </si>
   <si>
+    <t>Tammeka</t>
+  </si>
+  <si>
     <t>Kuressaare</t>
   </si>
   <si>
-    <t>Tammeka</t>
-  </si>
-  <si>
     <t>El Bayadh</t>
   </si>
   <si>
     <t>Trans</t>
   </si>
   <si>
+    <t>Sandviken</t>
+  </si>
+  <si>
     <t>Trelleborg</t>
   </si>
   <si>
-    <t>Sandviken</t>
-  </si>
-  <si>
     <t>CR Belouizdad</t>
   </si>
   <si>
@@ -298,54 +298,54 @@
     <t>América Mineiro</t>
   </si>
   <si>
+    <t>River Plate</t>
+  </si>
+  <si>
+    <t>Botafogo</t>
+  </si>
+  <si>
     <t>CSD Independiente del Valle</t>
   </si>
   <si>
     <t>Estudiantes</t>
   </si>
   <si>
-    <t>Botafogo</t>
-  </si>
-  <si>
-    <t>River Plate</t>
-  </si>
-  <si>
     <t>Sydney II</t>
   </si>
   <si>
     <t>Hà Nội II</t>
   </si>
   <si>
+    <t>Jeju United</t>
+  </si>
+  <si>
+    <t>Pohang Steelers</t>
+  </si>
+  <si>
     <t>Jeonbuk Motors</t>
   </si>
   <si>
-    <t>Pohang Steelers</t>
-  </si>
-  <si>
-    <t>Jeju United</t>
-  </si>
-  <si>
     <t>Binh Dinh</t>
   </si>
   <si>
+    <t>Tallinna Kalev</t>
+  </si>
+  <si>
     <t>Tallinna FC Flora</t>
   </si>
   <si>
-    <t>Tallinna Kalev</t>
-  </si>
-  <si>
     <t>CS Constantine</t>
   </si>
   <si>
     <t>Harju Jalgpallikool</t>
   </si>
   <si>
+    <t>GIF Sundsvall</t>
+  </si>
+  <si>
     <t>Helsingborg</t>
   </si>
   <si>
-    <t>GIF Sundsvall</t>
-  </si>
-  <si>
     <t>Paradou AC</t>
   </si>
   <si>
@@ -361,16 +361,16 @@
     <t>Atlético GO</t>
   </si>
   <si>
+    <t>Universitario</t>
+  </si>
+  <si>
+    <t>Universidad Chile</t>
+  </si>
+  <si>
     <t>Barcelona</t>
   </si>
   <si>
     <t>Carabobo</t>
-  </si>
-  <si>
-    <t>Universidad Chile</t>
-  </si>
-  <si>
-    <t>Universitario</t>
   </si>
   <si>
     <t>incomplete</t>
@@ -1291,64 +1291,64 @@
         <v>119</v>
       </c>
       <c r="L4">
-        <v>3.72</v>
+        <v>2.13</v>
       </c>
       <c r="M4">
-        <v>3.6</v>
+        <v>3.28</v>
       </c>
       <c r="N4">
-        <v>1.74</v>
+        <v>2.9</v>
       </c>
       <c r="O4">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="P4">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Q4">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="R4">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="S4">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="T4">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="U4">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="V4">
-        <v>6.4</v>
+        <v>6.85</v>
       </c>
       <c r="W4">
+        <v>1.04</v>
+      </c>
+      <c r="X4">
         <v>1.05</v>
       </c>
-      <c r="X4">
-        <v>1.04</v>
-      </c>
       <c r="Y4">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z4">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AA4">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="AB4">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="AC4">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AD4">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="AE4">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="AF4">
         <v>1.7</v>
@@ -1357,10 +1357,10 @@
         <v>2</v>
       </c>
       <c r="AH4">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="AI4">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="AJ4" t="s">
         <v>120</v>
@@ -1369,13 +1369,13 @@
         <v>120</v>
       </c>
       <c r="AL4">
-        <v>1.93</v>
+        <v>1.35</v>
       </c>
       <c r="AM4">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AN4">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="AO4">
         <v>-1</v>
@@ -1405,10 +1405,10 @@
         <v>1.67</v>
       </c>
       <c r="AX4">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AY4">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AZ4">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="BB4">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="BC4">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="BD4" s="3">
         <v>45804.3125</v>
@@ -1631,64 +1631,64 @@
         <v>119</v>
       </c>
       <c r="L6">
-        <v>2.13</v>
+        <v>3.72</v>
       </c>
       <c r="M6">
-        <v>3.28</v>
+        <v>3.6</v>
       </c>
       <c r="N6">
-        <v>2.9</v>
+        <v>1.74</v>
       </c>
       <c r="O6">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="P6">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Q6">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="R6">
+        <v>1.33</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <v>2.6</v>
+      </c>
+      <c r="U6">
+        <v>1.44</v>
+      </c>
+      <c r="V6">
+        <v>6.4</v>
+      </c>
+      <c r="W6">
+        <v>1.05</v>
+      </c>
+      <c r="X6">
+        <v>1.04</v>
+      </c>
+      <c r="Y6">
+        <v>10</v>
+      </c>
+      <c r="Z6">
+        <v>1.25</v>
+      </c>
+      <c r="AA6">
+        <v>3.9</v>
+      </c>
+      <c r="AB6">
+        <v>1.75</v>
+      </c>
+      <c r="AC6">
+        <v>1.95</v>
+      </c>
+      <c r="AD6">
+        <v>3</v>
+      </c>
+      <c r="AE6">
         <v>1.38</v>
-      </c>
-      <c r="S6">
-        <v>2.8</v>
-      </c>
-      <c r="T6">
-        <v>2.8</v>
-      </c>
-      <c r="U6">
-        <v>1.38</v>
-      </c>
-      <c r="V6">
-        <v>6.85</v>
-      </c>
-      <c r="W6">
-        <v>1.04</v>
-      </c>
-      <c r="X6">
-        <v>1.05</v>
-      </c>
-      <c r="Y6">
-        <v>9.5</v>
-      </c>
-      <c r="Z6">
-        <v>1.3</v>
-      </c>
-      <c r="AA6">
-        <v>3.45</v>
-      </c>
-      <c r="AB6">
-        <v>1.9</v>
-      </c>
-      <c r="AC6">
-        <v>1.8</v>
-      </c>
-      <c r="AD6">
-        <v>3.35</v>
-      </c>
-      <c r="AE6">
-        <v>1.3</v>
       </c>
       <c r="AF6">
         <v>1.7</v>
@@ -1697,10 +1697,10 @@
         <v>2</v>
       </c>
       <c r="AH6">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="AI6">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="AJ6" t="s">
         <v>120</v>
@@ -1709,13 +1709,13 @@
         <v>120</v>
       </c>
       <c r="AL6">
-        <v>1.35</v>
+        <v>1.93</v>
       </c>
       <c r="AM6">
+        <v>1.2</v>
+      </c>
+      <c r="AN6">
         <v>1.25</v>
-      </c>
-      <c r="AN6">
-        <v>1.62</v>
       </c>
       <c r="AO6">
         <v>-1</v>
@@ -1745,10 +1745,10 @@
         <v>1.67</v>
       </c>
       <c r="AX6">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="AY6">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AZ6">
         <v>0</v>
@@ -1757,10 +1757,10 @@
         <v>0</v>
       </c>
       <c r="BB6">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="BC6">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="BD6" s="3">
         <v>45804.3125</v>
@@ -1971,13 +1971,13 @@
         <v>119</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -2025,10 +2025,10 @@
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>119</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -2311,13 +2311,13 @@
         <v>119</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -2651,76 +2651,76 @@
         <v>119</v>
       </c>
       <c r="L12">
-        <v>2.22</v>
+        <v>1.58</v>
       </c>
       <c r="M12">
-        <v>3.39</v>
+        <v>3.83</v>
       </c>
       <c r="N12">
-        <v>2.67</v>
+        <v>4.4</v>
       </c>
       <c r="O12">
-        <v>1.9</v>
+        <v>1.53</v>
       </c>
       <c r="P12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q12">
+        <v>2.8</v>
+      </c>
+      <c r="R12">
+        <v>1.3</v>
+      </c>
+      <c r="S12">
+        <v>3.2</v>
+      </c>
+      <c r="T12">
+        <v>2.4</v>
+      </c>
+      <c r="U12">
+        <v>1.5</v>
+      </c>
+      <c r="V12">
+        <v>5.6</v>
+      </c>
+      <c r="W12">
+        <v>1.08</v>
+      </c>
+      <c r="X12">
+        <v>1.04</v>
+      </c>
+      <c r="Y12">
+        <v>11</v>
+      </c>
+      <c r="Z12">
+        <v>1.22</v>
+      </c>
+      <c r="AA12">
+        <v>4.33</v>
+      </c>
+      <c r="AB12">
+        <v>1.65</v>
+      </c>
+      <c r="AC12">
         <v>2.1</v>
       </c>
-      <c r="R12">
-        <v>1.35</v>
-      </c>
-      <c r="S12">
-        <v>2.95</v>
-      </c>
-      <c r="T12">
-        <v>2.62</v>
-      </c>
-      <c r="U12">
-        <v>1.42</v>
-      </c>
-      <c r="V12">
-        <v>6.15</v>
-      </c>
-      <c r="W12">
-        <v>1.06</v>
-      </c>
-      <c r="X12">
-        <v>1.05</v>
-      </c>
-      <c r="Y12">
-        <v>10</v>
-      </c>
-      <c r="Z12">
-        <v>1.25</v>
-      </c>
-      <c r="AA12">
-        <v>3.85</v>
-      </c>
-      <c r="AB12">
-        <v>1.76</v>
-      </c>
-      <c r="AC12">
-        <v>1.94</v>
-      </c>
       <c r="AD12">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AE12">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AF12">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AG12">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AH12">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="AI12">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AJ12" t="s">
         <v>120</v>
@@ -2729,58 +2729,58 @@
         <v>120</v>
       </c>
       <c r="AL12">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="AM12">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AN12">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="AO12">
         <v>-1</v>
       </c>
       <c r="AP12">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AQ12">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="AR12">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="AS12">
-        <v>1.96</v>
+        <v>1.77</v>
       </c>
       <c r="AT12">
-        <v>2.43</v>
+        <v>2.17</v>
       </c>
       <c r="AU12">
-        <v>3.8</v>
+        <v>4.35</v>
       </c>
       <c r="AV12">
+        <v>3.15</v>
+      </c>
+      <c r="AW12">
+        <v>2.4</v>
+      </c>
+      <c r="AX12">
+        <v>1.93</v>
+      </c>
+      <c r="AY12">
+        <v>1.6</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>1.53</v>
+      </c>
+      <c r="BC12">
         <v>2.8</v>
-      </c>
-      <c r="AW12">
-        <v>2.15</v>
-      </c>
-      <c r="AX12">
-        <v>1.74</v>
-      </c>
-      <c r="AY12">
-        <v>1.49</v>
-      </c>
-      <c r="AZ12">
-        <v>0</v>
-      </c>
-      <c r="BA12">
-        <v>0</v>
-      </c>
-      <c r="BB12">
-        <v>1.9</v>
-      </c>
-      <c r="BC12">
-        <v>2.1</v>
       </c>
       <c r="BD12" s="3">
         <v>45804.58333333334</v>
@@ -2821,76 +2821,76 @@
         <v>119</v>
       </c>
       <c r="L13">
-        <v>1.58</v>
+        <v>2.22</v>
       </c>
       <c r="M13">
-        <v>3.83</v>
+        <v>3.39</v>
       </c>
       <c r="N13">
-        <v>4.4</v>
+        <v>2.67</v>
       </c>
       <c r="O13">
-        <v>1.53</v>
+        <v>1.9</v>
       </c>
       <c r="P13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q13">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="R13">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="S13">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="T13">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="U13">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="V13">
-        <v>5.6</v>
+        <v>6.15</v>
       </c>
       <c r="W13">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="X13">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Y13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z13">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AA13">
-        <v>4.33</v>
+        <v>3.85</v>
       </c>
       <c r="AB13">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="AC13">
+        <v>1.94</v>
+      </c>
+      <c r="AD13">
+        <v>3</v>
+      </c>
+      <c r="AE13">
+        <v>1.4</v>
+      </c>
+      <c r="AF13">
+        <v>1.62</v>
+      </c>
+      <c r="AG13">
         <v>2.1</v>
       </c>
-      <c r="AD13">
-        <v>2.7</v>
-      </c>
-      <c r="AE13">
-        <v>1.48</v>
-      </c>
-      <c r="AF13">
-        <v>1.65</v>
-      </c>
-      <c r="AG13">
-        <v>2.05</v>
-      </c>
       <c r="AH13">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="AI13">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AJ13" t="s">
         <v>120</v>
@@ -2899,47 +2899,47 @@
         <v>120</v>
       </c>
       <c r="AL13">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="AM13">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AN13">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="AO13">
         <v>-1</v>
       </c>
       <c r="AP13">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AQ13">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="AR13">
+        <v>1.61</v>
+      </c>
+      <c r="AS13">
+        <v>1.96</v>
+      </c>
+      <c r="AT13">
+        <v>2.43</v>
+      </c>
+      <c r="AU13">
+        <v>3.8</v>
+      </c>
+      <c r="AV13">
+        <v>2.8</v>
+      </c>
+      <c r="AW13">
+        <v>2.15</v>
+      </c>
+      <c r="AX13">
+        <v>1.74</v>
+      </c>
+      <c r="AY13">
         <v>1.49</v>
       </c>
-      <c r="AS13">
-        <v>1.77</v>
-      </c>
-      <c r="AT13">
-        <v>2.17</v>
-      </c>
-      <c r="AU13">
-        <v>4.35</v>
-      </c>
-      <c r="AV13">
-        <v>3.15</v>
-      </c>
-      <c r="AW13">
-        <v>2.4</v>
-      </c>
-      <c r="AX13">
-        <v>1.93</v>
-      </c>
-      <c r="AY13">
-        <v>1.6</v>
-      </c>
       <c r="AZ13">
         <v>0</v>
       </c>
@@ -2947,10 +2947,10 @@
         <v>0</v>
       </c>
       <c r="BB13">
-        <v>1.53</v>
+        <v>1.9</v>
       </c>
       <c r="BC13">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="BD13" s="3">
         <v>45804.58333333334</v>
@@ -2991,13 +2991,13 @@
         <v>119</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.91</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>7.81</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -3161,13 +3161,13 @@
         <v>119</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -3209,10 +3209,10 @@
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AD15">
         <v>0</v>
@@ -3689,10 +3689,10 @@
         <v>2.88</v>
       </c>
       <c r="R18">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="S18">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="T18">
         <v>3.22</v>
@@ -3701,19 +3701,19 @@
         <v>1.3</v>
       </c>
       <c r="V18">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W18">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="X18">
         <v>1.08</v>
       </c>
       <c r="Y18">
-        <v>7.5</v>
+        <v>6.95</v>
       </c>
       <c r="Z18">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AA18">
         <v>2.7</v>
@@ -3740,7 +3740,7 @@
         <v>8.5</v>
       </c>
       <c r="AI18">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AJ18" t="s">
         <v>120</v>
@@ -3764,31 +3764,31 @@
         <v>1.22</v>
       </c>
       <c r="AQ18">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="AR18">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="AS18">
         <v>2.09</v>
       </c>
       <c r="AT18">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="AU18">
-        <v>3.8</v>
+        <v>3.98</v>
       </c>
       <c r="AV18">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="AW18">
         <v>2.09</v>
       </c>
       <c r="AX18">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AY18">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="AZ18">
         <v>0</v>
@@ -3841,76 +3841,76 @@
         <v>119</v>
       </c>
       <c r="L19">
+        <v>1.3</v>
+      </c>
+      <c r="M19">
+        <v>4.7</v>
+      </c>
+      <c r="N19">
+        <v>7.4</v>
+      </c>
+      <c r="O19">
+        <v>1.25</v>
+      </c>
+      <c r="P19">
+        <v>11</v>
+      </c>
+      <c r="Q19">
+        <v>4.33</v>
+      </c>
+      <c r="R19">
+        <v>1.3</v>
+      </c>
+      <c r="S19">
+        <v>3.4</v>
+      </c>
+      <c r="T19">
+        <v>2.5</v>
+      </c>
+      <c r="U19">
+        <v>1.5</v>
+      </c>
+      <c r="V19">
+        <v>6</v>
+      </c>
+      <c r="W19">
+        <v>1.13</v>
+      </c>
+      <c r="X19">
+        <v>1.03</v>
+      </c>
+      <c r="Y19">
+        <v>11</v>
+      </c>
+      <c r="Z19">
+        <v>1.2</v>
+      </c>
+      <c r="AA19">
+        <v>4.33</v>
+      </c>
+      <c r="AB19">
+        <v>1.61</v>
+      </c>
+      <c r="AC19">
+        <v>2.1</v>
+      </c>
+      <c r="AD19">
+        <v>2.7</v>
+      </c>
+      <c r="AE19">
+        <v>1.45</v>
+      </c>
+      <c r="AF19">
+        <v>2</v>
+      </c>
+      <c r="AG19">
         <v>1.75</v>
       </c>
-      <c r="M19">
-        <v>3.45</v>
-      </c>
-      <c r="N19">
-        <v>3.87</v>
-      </c>
-      <c r="O19">
-        <v>1.53</v>
-      </c>
-      <c r="P19">
-        <v>10</v>
-      </c>
-      <c r="Q19">
-        <v>2.63</v>
-      </c>
-      <c r="R19">
-        <v>1.33</v>
-      </c>
-      <c r="S19">
-        <v>3.25</v>
-      </c>
-      <c r="T19">
-        <v>2.63</v>
-      </c>
-      <c r="U19">
-        <v>1.44</v>
-      </c>
-      <c r="V19">
-        <v>6.5</v>
-      </c>
-      <c r="W19">
-        <v>1.11</v>
-      </c>
-      <c r="X19">
-        <v>1.05</v>
-      </c>
-      <c r="Y19">
-        <v>9.5</v>
-      </c>
-      <c r="Z19">
-        <v>1.28</v>
-      </c>
-      <c r="AA19">
-        <v>3.65</v>
-      </c>
-      <c r="AB19">
-        <v>1.76</v>
-      </c>
-      <c r="AC19">
-        <v>1.94</v>
-      </c>
-      <c r="AD19">
-        <v>3.1</v>
-      </c>
-      <c r="AE19">
-        <v>1.36</v>
-      </c>
-      <c r="AF19">
-        <v>1.7</v>
-      </c>
-      <c r="AG19">
-        <v>2.05</v>
-      </c>
       <c r="AH19">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="AI19">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="AJ19" t="s">
         <v>120</v>
@@ -3919,46 +3919,46 @@
         <v>120</v>
       </c>
       <c r="AL19">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="AM19">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="AN19">
-        <v>1.93</v>
+        <v>3.1</v>
       </c>
       <c r="AO19">
         <v>-1</v>
       </c>
       <c r="AP19">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="AQ19">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="AR19">
-        <v>1.86</v>
+        <v>1.66</v>
       </c>
       <c r="AS19">
-        <v>2.32</v>
+        <v>2.05</v>
       </c>
       <c r="AT19">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="AU19">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="AV19">
-        <v>2.32</v>
+        <v>2.65</v>
       </c>
       <c r="AW19">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="AX19">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AY19">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="AZ19">
         <v>0</v>
@@ -3967,10 +3967,10 @@
         <v>0</v>
       </c>
       <c r="BB19">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="BC19">
-        <v>2.63</v>
+        <v>4.33</v>
       </c>
       <c r="BD19" s="3">
         <v>45804.89583333334</v>
@@ -4011,76 +4011,76 @@
         <v>119</v>
       </c>
       <c r="L20">
-        <v>1.1</v>
+        <v>1.53</v>
       </c>
       <c r="M20">
-        <v>7.2</v>
+        <v>3.69</v>
       </c>
       <c r="N20">
-        <v>14</v>
+        <v>5.1</v>
       </c>
       <c r="O20">
-        <v>1.13</v>
+        <v>1.4</v>
       </c>
       <c r="P20">
-        <v>17</v>
+        <v>8.75</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="R20">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="S20">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="T20">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="V20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W20">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="X20">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="Y20">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="Z20">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="AA20">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="AB20">
-        <v>1.45</v>
+        <v>1.92</v>
       </c>
       <c r="AC20">
-        <v>2.55</v>
+        <v>1.78</v>
       </c>
       <c r="AD20">
-        <v>1.91</v>
+        <v>3.5</v>
       </c>
       <c r="AE20">
-        <v>1.73</v>
+        <v>1.28</v>
       </c>
       <c r="AF20">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AG20">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AH20">
-        <v>3.85</v>
+        <v>7</v>
       </c>
       <c r="AI20">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="AJ20" t="s">
         <v>120</v>
@@ -4089,46 +4089,46 @@
         <v>120</v>
       </c>
       <c r="AL20">
-        <v>1.02</v>
+        <v>1.15</v>
       </c>
       <c r="AM20">
-        <v>1.08</v>
+        <v>1.25</v>
       </c>
       <c r="AN20">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="AO20">
         <v>-1</v>
       </c>
       <c r="AP20">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="AQ20">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="AR20">
-        <v>1.49</v>
+        <v>1.78</v>
       </c>
       <c r="AS20">
-        <v>1.77</v>
+        <v>2.2</v>
       </c>
       <c r="AT20">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="AU20">
-        <v>4.35</v>
+        <v>3.3</v>
       </c>
       <c r="AV20">
-        <v>3.15</v>
+        <v>2.45</v>
       </c>
       <c r="AW20">
-        <v>2.4</v>
+        <v>1.91</v>
       </c>
       <c r="AX20">
-        <v>1.92</v>
+        <v>1.58</v>
       </c>
       <c r="AY20">
-        <v>1.61</v>
+        <v>1.37</v>
       </c>
       <c r="AZ20">
         <v>0</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="BB20">
-        <v>1.13</v>
+        <v>1.4</v>
       </c>
       <c r="BC20">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="BD20" s="3">
         <v>45804.89583333334</v>
@@ -4181,76 +4181,76 @@
         <v>119</v>
       </c>
       <c r="L21">
+        <v>1.75</v>
+      </c>
+      <c r="M21">
+        <v>3.45</v>
+      </c>
+      <c r="N21">
+        <v>3.87</v>
+      </c>
+      <c r="O21">
         <v>1.53</v>
       </c>
-      <c r="M21">
-        <v>3.69</v>
-      </c>
-      <c r="N21">
-        <v>5.1</v>
-      </c>
-      <c r="O21">
-        <v>1.4</v>
-      </c>
       <c r="P21">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="Q21">
+        <v>2.63</v>
+      </c>
+      <c r="R21">
+        <v>1.33</v>
+      </c>
+      <c r="S21">
         <v>3.25</v>
       </c>
-      <c r="R21">
-        <v>1.4</v>
-      </c>
-      <c r="S21">
-        <v>2.75</v>
-      </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U21">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V21">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="W21">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="X21">
         <v>1.05</v>
       </c>
       <c r="Y21">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z21">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AA21">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="AB21">
-        <v>1.92</v>
+        <v>1.76</v>
       </c>
       <c r="AC21">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="AD21">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AE21">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AF21">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AG21">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="AH21">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="AI21">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="AJ21" t="s">
         <v>120</v>
@@ -4259,46 +4259,46 @@
         <v>120</v>
       </c>
       <c r="AL21">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="AM21">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AN21">
-        <v>2.25</v>
+        <v>1.93</v>
       </c>
       <c r="AO21">
         <v>-1</v>
       </c>
       <c r="AP21">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AQ21">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR21">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="AS21">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="AT21">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AU21">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="AV21">
-        <v>2.45</v>
+        <v>2.32</v>
       </c>
       <c r="AW21">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="AX21">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="AY21">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="AZ21">
         <v>0</v>
@@ -4307,10 +4307,10 @@
         <v>0</v>
       </c>
       <c r="BB21">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="BC21">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="BD21" s="3">
         <v>45804.89583333334</v>
@@ -4351,76 +4351,76 @@
         <v>119</v>
       </c>
       <c r="L22">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="M22">
-        <v>4.7</v>
+        <v>7.2</v>
       </c>
       <c r="N22">
-        <v>7.4</v>
+        <v>14</v>
       </c>
       <c r="O22">
+        <v>1.13</v>
+      </c>
+      <c r="P22">
+        <v>17</v>
+      </c>
+      <c r="Q22">
+        <v>6</v>
+      </c>
+      <c r="R22">
         <v>1.25</v>
       </c>
-      <c r="P22">
-        <v>11</v>
-      </c>
-      <c r="Q22">
-        <v>4.33</v>
-      </c>
-      <c r="R22">
-        <v>1.3</v>
-      </c>
       <c r="S22">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T22">
+        <v>2.2</v>
+      </c>
+      <c r="U22">
+        <v>1.62</v>
+      </c>
+      <c r="V22">
+        <v>5</v>
+      </c>
+      <c r="W22">
+        <v>1.17</v>
+      </c>
+      <c r="X22">
+        <v>1.01</v>
+      </c>
+      <c r="Y22">
+        <v>17</v>
+      </c>
+      <c r="Z22">
+        <v>1.15</v>
+      </c>
+      <c r="AA22">
+        <v>5.25</v>
+      </c>
+      <c r="AB22">
+        <v>1.45</v>
+      </c>
+      <c r="AC22">
+        <v>2.55</v>
+      </c>
+      <c r="AD22">
+        <v>1.91</v>
+      </c>
+      <c r="AE22">
+        <v>1.73</v>
+      </c>
+      <c r="AF22">
         <v>2.5</v>
       </c>
-      <c r="U22">
+      <c r="AG22">
         <v>1.5</v>
       </c>
-      <c r="V22">
-        <v>6</v>
-      </c>
-      <c r="W22">
-        <v>1.13</v>
-      </c>
-      <c r="X22">
-        <v>1.03</v>
-      </c>
-      <c r="Y22">
-        <v>11</v>
-      </c>
-      <c r="Z22">
-        <v>1.2</v>
-      </c>
-      <c r="AA22">
-        <v>4.33</v>
-      </c>
-      <c r="AB22">
-        <v>1.61</v>
-      </c>
-      <c r="AC22">
-        <v>2.1</v>
-      </c>
-      <c r="AD22">
-        <v>2.7</v>
-      </c>
-      <c r="AE22">
-        <v>1.45</v>
-      </c>
-      <c r="AF22">
-        <v>2</v>
-      </c>
-      <c r="AG22">
-        <v>1.75</v>
-      </c>
       <c r="AH22">
-        <v>5</v>
+        <v>3.85</v>
       </c>
       <c r="AI22">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AJ22" t="s">
         <v>120</v>
@@ -4429,46 +4429,46 @@
         <v>120</v>
       </c>
       <c r="AL22">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="AM22">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AN22">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="AO22">
         <v>-1</v>
       </c>
       <c r="AP22">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="AQ22">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="AR22">
-        <v>1.66</v>
+        <v>1.49</v>
       </c>
       <c r="AS22">
-        <v>2.05</v>
+        <v>1.77</v>
       </c>
       <c r="AT22">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="AU22">
-        <v>3.65</v>
+        <v>4.35</v>
       </c>
       <c r="AV22">
-        <v>2.65</v>
+        <v>3.15</v>
       </c>
       <c r="AW22">
-        <v>2.06</v>
+        <v>2.4</v>
       </c>
       <c r="AX22">
-        <v>1.67</v>
+        <v>1.92</v>
       </c>
       <c r="AY22">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
       <c r="AZ22">
         <v>0</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="BB22">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="BC22">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="BD22" s="3">
         <v>45804.89583333334</v>
